--- a/rentabilidad tecnico/gasto_nomina.xlsx
+++ b/rentabilidad tecnico/gasto_nomina.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaguilar\Documents\PITSS\rentabilidad tecnico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D823CFBA-AD13-4779-AB64-A98D316F1E9B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B5EEA3-F0C2-4721-AA43-4CAC6E90CC35}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{39647590-8859-43F8-B677-F7AA74508689}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{39647590-8859-43F8-B677-F7AA74508689}"/>
   </bookViews>
   <sheets>
-    <sheet name="gasto_nomina" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
+    <sheet name="gasto_nomina" sheetId="4" r:id="rId1"/>
+    <sheet name="gasto_nomina1" sheetId="2" r:id="rId2"/>
     <sheet name="gasto_transporte" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">gasto_nomina!$B$1:$B$1353</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">gasto_nomina!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">gasto_nomina1!$B$1:$B$1353</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">gasto_nomina1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="170">
   <si>
     <t>Gutierrez Gutierrez Luis Arturo</t>
   </si>
@@ -542,6 +542,12 @@
   <si>
     <t>nomina</t>
   </si>
+  <si>
+    <t xml:space="preserve">Gutierrez  Castillo  Jose De Jesus </t>
+  </si>
+  <si>
+    <t>Mejia  Duarte Jose Luis</t>
+  </si>
 </sst>
 </file>
 
@@ -550,7 +556,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,6 +647,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -707,12 +720,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -761,8 +775,11 @@
     <xf numFmtId="43" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Millares" xfId="3" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{88969733-EDDF-43AE-8785-2921E6D4CDDB}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{F5B5D9F5-F2FA-4ACF-82BB-125FD0B495ED}"/>
@@ -1647,11 +1664,4492 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31011981-51DF-4812-B372-AA8CB362323E}">
+  <dimension ref="A1:C406"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>5772.0882000000011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>6356.7420000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>9198.3701999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>11948.728799999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>9712.266599999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>7598.9286000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>9520.8126000000011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>7300.1094000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>7680.2429999999986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>9497.2811999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>8772.3366000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>9711.8585999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>6580.9992000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>35360.839800000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>7445.898000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>6963.6011999999992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>21806.376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19">
+        <v>9198.3701999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>5778.8209999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>5778.8209999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>5753.3209999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23">
+        <v>9023.1226000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24">
+        <v>5717.6210000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25">
+        <v>5345.54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>8366.6189999999988</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27">
+        <v>5016.5189999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28">
+        <v>4974.4399999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29">
+        <v>7314.2860000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30">
+        <v>3959.2310000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31">
+        <v>6495.0399999999991</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32">
+        <v>5897.7610000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33">
+        <v>5805.9610000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34">
+        <v>4789.6500000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35">
+        <v>9869.6810000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36">
+        <v>9997.1810000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37">
+        <v>4784.55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38">
+        <v>5683.5610000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39">
+        <v>5693.7610000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40">
+        <v>5622.36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41">
+        <v>6918.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42">
+        <v>5841.66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43">
+        <v>7163.4750999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44">
+        <v>5390.6948999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45">
+        <v>6292.6450999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46">
+        <v>6009.9310000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47">
+        <v>7708.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48">
+        <v>5744.7610000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49">
+        <v>6081.3609999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50">
+        <v>9423.4310000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51">
+        <v>6050.7610000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52">
+        <v>6081.3610000000008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53">
+        <v>4852.05</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54">
+        <v>7092.7609999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55">
+        <v>5671.7309999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56">
+        <v>6038.9310000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57">
+        <v>6050.7610000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58">
+        <v>5692.6399999999994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59">
+        <v>5998.64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60">
+        <v>7680.3589999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61">
+        <v>8882.9789999999994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62">
+        <v>10089.129000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63">
+        <v>11611.451000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64">
+        <v>11763.175999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65">
+        <v>9996.5319999999992</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66">
+        <v>8272.732</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67">
+        <v>6972.232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68">
+        <v>8670.5319999999992</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69">
+        <v>6951.8319999999994</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70">
+        <v>6469.4210000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71">
+        <v>6062.5540000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72">
+        <v>7112.8990000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73">
+        <v>6669.7809999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74">
+        <v>576.75899999999979</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75">
+        <v>4134.4679999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76">
+        <v>3871.7110000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77">
+        <v>4020.4179999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78">
+        <v>13598.701000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79">
+        <v>3775.6310000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80">
+        <v>4930.4790000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81">
+        <v>5909.0689999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82">
+        <v>5427.93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83">
+        <v>4509.93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84">
+        <v>5600.0549999999994</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85">
+        <v>5198.43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C86">
+        <v>4546.8599999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C87">
+        <v>4449.96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C88">
+        <v>7615.0500000000011</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89">
+        <v>8150.55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C90">
+        <v>4701.8010000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91">
+        <v>5339.3009999999995</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C93">
+        <v>4975.26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C94">
+        <v>5370.5550000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95">
+        <v>5195.0690000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96">
+        <v>5103.7526000000007</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C97">
+        <v>4325.55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C98">
+        <v>4325.55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C99">
+        <v>3711.0610000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100">
+        <v>4641.1900000000005</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101">
+        <v>6549.2844000000005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="21">
+        <v>43600</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C102">
+        <v>1365.172</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>5951.496000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>6017.5001999999995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>8871.7559999999994</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>11635.496999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107">
+        <v>9855.7602000000006</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>6794.2811999999994</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B109" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <v>12020.710200000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110">
+        <v>6641.2811999999994</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B111" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <v>7354.3427999999994</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112">
+        <v>9179.4186000000009</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113">
+        <v>7917.4236000000019</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114">
+        <v>9396.7602000000006</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115">
+        <v>6248.5811999999996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B116" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116">
+        <v>34595.676599999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B117" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117">
+        <v>6580.0811999999987</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118">
+        <v>6631.0811999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119">
+        <v>21470.1126</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C120">
+        <v>8871.7559999999994</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B121" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121">
+        <v>5842.6510000000007</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B122" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122">
+        <v>5925.8509999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B123" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123">
+        <v>6316.3509999999987</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B124" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C124">
+        <v>9550.588600000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B125" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C125">
+        <v>6197.451</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B126" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C126">
+        <v>5397.1200000000008</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B127" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C127">
+        <v>6976.0990000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B128" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C128">
+        <v>5074.3889999999992</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B129" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C129">
+        <v>5953.0199999999995</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B130" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C130">
+        <v>7378.9874</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B131" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C131">
+        <v>4160.0610000000006</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B132" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C132">
+        <v>6560.58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B133" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C133">
+        <v>5962.3909999999996</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B134" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C134">
+        <v>5870.5910000000003</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B135" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C135">
+        <v>9975.2810000000009</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B136" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C136">
+        <v>10102.781000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B137" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C137">
+        <v>6672.1399999999994</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B138" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C138">
+        <v>5831.3909999999996</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B139" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C139">
+        <v>5758.3910000000005</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B140" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C140">
+        <v>5687</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B141" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C141">
+        <v>6996.5499999999993</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B142" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C142">
+        <v>5906.3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B143" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C143">
+        <v>7238.6851000000006</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B144" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C144">
+        <v>5529.9559980000004</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B145" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C145">
+        <v>6361.2050999999992</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B146" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C146">
+        <v>6694.3510000000006</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B147" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C147">
+        <v>6960.45</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B148" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C148">
+        <v>5892.5910000000003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B149" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C149">
+        <v>5901.1909999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B150" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C150">
+        <v>9529.030999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B151" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C151">
+        <v>6115.3909999999996</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B152" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C152">
+        <v>6145.991</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B153" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C153">
+        <v>4629.53</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B154" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C154">
+        <v>7238.991</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B155" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C155">
+        <v>5735.5510000000004</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B156" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C156">
+        <v>6102.7510000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B157" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C157">
+        <v>6115.3910000000005</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B158" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C158">
+        <v>5734.37</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B159" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C159">
+        <v>6689.27</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B160" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C160">
+        <v>9839.2135999999991</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B161" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C161">
+        <v>8940.2289999999994</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B162" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C162">
+        <v>9003.9789999999994</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B163" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C163">
+        <v>9921.9081999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B164" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C164">
+        <v>10653.155999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B165" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C165">
+        <v>8014.8119999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B166" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C166">
+        <v>7555.8119999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B167" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C167">
+        <v>6704.1119999999992</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B168" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C168">
+        <v>10178.3076</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B169" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C169">
+        <v>7010.112000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B170" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C170">
+        <v>6462.2510000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B171" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C171">
+        <v>6112.7340000000004</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B172" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C172">
+        <v>6505.4135999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B173" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C173">
+        <v>6715.1010000000006</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B174" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C174">
+        <v>4934.9149999999991</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B175" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C175">
+        <v>7836.3609999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B176" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C176">
+        <v>3916.8010000000004</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B177" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C177">
+        <v>4065.2080000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B178" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C178">
+        <v>13661.271000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B179" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C179">
+        <v>3820.4610000000007</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B180" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C180">
+        <v>4987.7190000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B181" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C181">
+        <v>5558.9490000000005</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B182" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C182">
+        <v>5481.4000000000005</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B183" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C183">
+        <v>4563.4000000000005</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B184" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C184">
+        <v>5653.5250000000005</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B185" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C185">
+        <v>5251.9000000000005</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B186" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C186">
+        <v>4597.8799999999992</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B187" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C187">
+        <v>4500.9799999999996</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B188" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C188">
+        <v>7666.64</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B189" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C189">
+        <v>8202.14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B190" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C190">
+        <v>4737.6210000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B191" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C191">
+        <v>5375.121000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B192" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C192">
+        <v>4597.8799999999992</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B193" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C193">
+        <v>5424.0250000000005</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B194" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C194">
+        <v>5252.9489999999996</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B195" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C195">
+        <v>5156.6325999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B196" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C196">
+        <v>4377.1399999999994</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B197" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C197">
+        <v>4377.1400000000003</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B198" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C198">
+        <v>3756.3610000000003</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B199" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C199">
+        <v>4488.2300000000005</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B200" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C200">
+        <v>6403.2784000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B201" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C201">
+        <v>4555.1399999999994</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B202" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C202">
+        <v>1668.376</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="21">
+        <v>43616</v>
+      </c>
+      <c r="B203" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C203">
+        <v>2830.7820000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B204" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>5284.8342000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B205" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C205">
+        <v>5971.4880000000003</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B206" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206">
+        <v>9210.9161999999997</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B207" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207">
+        <v>11563.4748</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B208" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208">
+        <v>9059.0586000000003</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B209" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209">
+        <v>6680.2860000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B210" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210">
+        <v>8982.5586000000003</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B211" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211">
+        <v>7087.2659999999996</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B212" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212">
+        <v>7539.6870000000008</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B213" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213">
+        <v>8943.7475999999988</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B214" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C214">
+        <v>7854.6732000000011</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B215" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C215">
+        <v>9326.8086000000003</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B216" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C216">
+        <v>6205.9860000000008</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B217" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C217">
+        <v>34363.6368</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B218" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C218">
+        <v>6416.616</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B219" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C219">
+        <v>7144.3860000000004</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B220" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C220">
+        <v>21420.918000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B221" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C221">
+        <v>8813.1162000000004</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B222" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C222">
+        <v>5727.8210000000008</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B223" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C223">
+        <v>5727.8210000000008</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B224" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C224">
+        <v>5804.3209999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B225" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C225">
+        <v>10006.050000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B226" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C226">
+        <v>5773.7209999999995</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B227" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C227">
+        <v>5345.54</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B228" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C228">
+        <v>6959.0189999999993</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B229" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C229">
+        <v>5073.8940000000002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B230" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C230">
+        <v>5342.0999999999995</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B231" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C231">
+        <v>7690.4110000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B232" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C232">
+        <v>6815.2309999999998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B233" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C233">
+        <v>6495.04</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B234" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C234">
+        <v>5775.3609999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B235" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C235">
+        <v>5683.5609999999997</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B236" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C236">
+        <v>9487.1809999999987</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B237" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C237">
+        <v>9614.6809999999987</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B238" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C238">
+        <v>5294.5500000000011</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B239" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C239">
+        <v>5714.1610000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B240" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C240">
+        <v>5693.7610000000004</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B241" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C241">
+        <v>6132.0599999999995</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B242" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C242">
+        <v>6867.3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B243" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C243">
+        <v>5790.66</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B244" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C244">
+        <v>6908.4750999999997</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B245" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C245">
+        <v>5324.3948999999993</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B246" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C246">
+        <v>6038.1550999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B247" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C247">
+        <v>6161.3310000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B248" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C248">
+        <v>7007.15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B249" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C249">
+        <v>5744.7610000000004</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B250" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C250">
+        <v>5836.5609999999997</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B251" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C251">
+        <v>9869.6809999999987</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B252" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C252">
+        <v>6081.3609999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B253" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C253">
+        <v>5928.3609999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B254" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C254">
+        <v>6262.4110000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B255" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C255">
+        <v>5809.4310000000005</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B256" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C256">
+        <v>6069.5310000000009</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B257" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C257">
+        <v>6142.5609999999997</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B258" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C258">
+        <v>5692.64</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B259" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C259">
+        <v>6100.6399999999994</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B260" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C260">
+        <v>7756.8590000000004</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B261" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C261">
+        <v>8627.9789999999994</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B262" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C262">
+        <v>8787.3539999999994</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B263" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C263">
+        <v>9540.8509999999987</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B264" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C264">
+        <v>10579.976000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B265" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C265">
+        <v>8166.9069999999992</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B266" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C266">
+        <v>7497.5319999999992</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B267" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C267">
+        <v>7078.5312000000013</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B268" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C268">
+        <v>8007.5319999999992</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B269" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C269">
+        <v>6569.3320000000003</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B270" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C270">
+        <v>6509.2209999999995</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B271" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C271">
+        <v>6100.8040000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B272" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C272">
+        <v>6455.2540000000008</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B273" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C273">
+        <v>6669.7810000000009</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B274" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C274">
+        <v>4757.2350000000006</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B275" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C275">
+        <v>7472.3109999999997</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B276" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C276">
+        <v>3871.7110000000002</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B277" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C277">
+        <v>3959.2180000000003</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B278" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C278">
+        <v>13889.401</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B279" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C279">
+        <v>3847.0309999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B280" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C280">
+        <v>4930.4789999999994</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B281" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C281">
+        <v>5042.0689999999995</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B282" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C282">
+        <v>5427.9299999999994</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B283" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C283">
+        <v>4509.9299999999994</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B284" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C284">
+        <v>5427.9299999999994</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B285" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C285">
+        <v>5886.9299999999994</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B286" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C286">
+        <v>4688.3850000000002</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B287" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C287">
+        <v>4615.71</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B288" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C288">
+        <v>7385.55</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B289" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C289">
+        <v>8150.55</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B290" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C290">
+        <v>4574.3009999999995</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B291" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C291">
+        <v>5020.5510000000004</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B292" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C292">
+        <v>4661.6100000000006</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B293" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C293">
+        <v>5370.5549999999994</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B294" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C294">
+        <v>5131.3189999999995</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B295" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C295">
+        <v>4558.6849999999995</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B296" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C296">
+        <v>4325.55</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B297" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C297">
+        <v>4325.5499999999993</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B298" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C298">
+        <v>3711.0610000000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B299" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C299">
+        <v>4814.6100000000006</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B300" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C300">
+        <v>7238.7839999999997</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B301" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C301">
+        <v>4502.2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B302" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C302">
+        <v>4501.3099999999995</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="21">
+        <v>43631</v>
+      </c>
+      <c r="B303" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C303">
+        <v>4715.1600000000008</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B304" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C304">
+        <v>5284.8342000000002</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B305" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C305">
+        <v>5971.4880000000003</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B306" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C306">
+        <v>8813.1162000000004</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B307" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307">
+        <v>11563.4748</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B308" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C308">
+        <v>9059.0586000000003</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B309" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C309">
+        <v>6680.2860000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B310" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C310">
+        <v>8982.5586000000003</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B311" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C311">
+        <v>6466.0859999999993</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B312" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C312">
+        <v>7906.8870000000006</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B313" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C313">
+        <v>9402.7475999999988</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B314" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C314">
+        <v>7987.2731999999996</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B315" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C315">
+        <v>9326.8086000000003</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B316" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C316">
+        <v>7123.9860000000008</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B317" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C317">
+        <v>34363.6368</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B318" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C318">
+        <v>6313.0859999999993</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B319" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C319">
+        <v>6517.0859999999993</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B320" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C320">
+        <v>21420.917999999998</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B321" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C321">
+        <v>8813.1162000000004</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B322" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C322">
+        <v>5727.8209999999999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B323" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C323">
+        <v>5727.8209999999999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B324" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C324">
+        <v>5804.3209999999999</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B325" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C325">
+        <v>9991.4639999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B326" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C326">
+        <v>5773.7209999999995</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B327" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C327">
+        <v>5666.84</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B328" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C328">
+        <v>6606.1758</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B329" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C329">
+        <v>5073.8940000000002</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B330" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C330">
+        <v>5498.54</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B331" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C331">
+        <v>7690.4110000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B332" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C332">
+        <v>3959.2310000000002</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B333" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C333">
+        <v>6495.04</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B334" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C334">
+        <v>5775.3609999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B335" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C335">
+        <v>5683.5610000000006</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B336" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C336">
+        <v>9487.1809999999987</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B337" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C337">
+        <v>9614.6809999999987</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B338" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C338">
+        <v>5294.55</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B339" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C339">
+        <v>5714.1610000000001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B340" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C340">
+        <v>5693.7610000000004</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B341" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C341">
+        <v>5882.46</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B342" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C342">
+        <v>6867.3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B343" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C343">
+        <v>5790.66</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B344" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C344">
+        <v>6908.4751000000006</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B345" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C345">
+        <v>5402.4559979999995</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B346" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C346">
+        <v>6038.1550999999999</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B347" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C347">
+        <v>6161.3310000000001</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B348" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C348">
+        <v>7007.1500000000005</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B349" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C349">
+        <v>5744.7610000000004</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B350" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C350">
+        <v>5836.5609999999997</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B351" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C351">
+        <v>9869.6809999999987</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B352" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C352">
+        <v>6081.3609999999999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B353" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C353">
+        <v>5928.3609999999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B354" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C354">
+        <v>6772.4110000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B355" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C355">
+        <v>5809.4310000000005</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B356" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C356">
+        <v>6069.5309999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B357" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C357">
+        <v>6142.5609999999997</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B358" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C358">
+        <v>5692.6399999999994</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B359" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C359">
+        <v>6564.1400000000012</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B360" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C360">
+        <v>7756.8590000000004</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B361" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C361">
+        <v>8627.9789999999994</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B362" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C362">
+        <v>8787.3539999999994</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B363" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C363">
+        <v>10315.2372</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B364" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C364">
+        <v>10579.975999999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B365" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C365">
+        <v>8166.9069999999992</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B366" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C366">
+        <v>7497.5319999999992</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B367" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C367">
+        <v>6768.232</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B368" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C368">
+        <v>8007.5319999999992</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B369" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C369">
+        <v>6569.3319999999994</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B370" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C370">
+        <v>6715.2209999999995</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B371" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C371">
+        <v>6100.8040000000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B372" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C372">
+        <v>6455.2540000000008</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B373" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C373">
+        <v>6669.7810000000009</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B374" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C374">
+        <v>4757.2350000000006</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B375" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C375">
+        <v>7472.3109999999997</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B376" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C376">
+        <v>3871.7110000000002</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B377" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C377">
+        <v>3959.2180000000003</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B378" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C378">
+        <v>13889.401</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B379" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C379">
+        <v>3847.0309999999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B380" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C380">
+        <v>4930.4789999999994</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B381" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C381">
+        <v>5042.0689999999995</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B382" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C382">
+        <v>5427.9299999999994</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B383" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C383">
+        <v>4509.9299999999994</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B384" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C384">
+        <v>5427.93</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B385" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C385">
+        <v>5886.93</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B386" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C386">
+        <v>4688.3850000000002</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B387" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C387">
+        <v>4615.71</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B388" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C388">
+        <v>7385.5500000000011</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B389" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C389">
+        <v>8150.55</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B390" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C390">
+        <v>4574.3010000000004</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B391" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C391">
+        <v>5020.5510000000004</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B392" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C392">
+        <v>4661.6100000000006</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B393" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C393">
+        <v>5370.5549999999994</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B394" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C394">
+        <v>5131.3189999999995</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B395" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C395">
+        <v>4558.6849999999995</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B396" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C396">
+        <v>4325.55</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B397" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C397">
+        <v>4723.3499999999995</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B398" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C398">
+        <v>3711.0610000000001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B399" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C399">
+        <v>4814.6100000000006</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B400" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C400">
+        <v>7238.7839999999997</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B401" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C401">
+        <v>4502.2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B402" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C402">
+        <v>4501.3100000000004</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B403" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C403">
+        <v>4317.3600000000006</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B404" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C404">
+        <v>4054.8699999999994</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B405" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C405">
+        <v>3951.77</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="21">
+        <v>43646</v>
+      </c>
+      <c r="B406" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C406">
+        <v>2064.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D45327-5423-474E-B731-327A7CE2B038}">
   <dimension ref="A1:C1353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16579,33 +21077,6 @@
   <conditionalFormatting sqref="B1302">
     <cfRule type="duplicateValues" dxfId="46" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31011981-51DF-4812-B372-AA8CB362323E}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
